--- a/data/trans_camb/P12B1_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,66</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 23,79</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 19,98</t>
+          <t>-2,27; 0,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,8</t>
+          <t>-3,27; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 2,06</t>
+          <t>-2,61; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 15,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 0,32</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 0,35</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 0,46</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-27,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-41,5%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>327,86%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>41,69%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>659,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-42,33%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-39,1%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-19,89%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,83</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,15</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 42,93</t>
+          <t>-3,85; 5,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 39,33</t>
+          <t>-6,46; 2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 14,72</t>
+          <t>-2,28; 11,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 27,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 18,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 29,53</t>
+          <t>-1,34; 2,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 31,68</t>
+          <t>-1,7; 1,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 27,07</t>
+          <t>-0,3; 5,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 16,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 3,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 1,49</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 6,84</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,24%</t>
+          <t>-20,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,16%</t>
+          <t>99,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>124,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>115,94%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>103,88%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>143,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44,47%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-13,75%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>116,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,1; 951,73</t>
+          <t>-86,24; 955,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,74; 679,22</t>
+          <t>-94,53; 456,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,61; 1685,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 506,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 387,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 608,42</t>
+          <t>-62,81; 415,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 408,98</t>
+          <t>-73,93; 269,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 328,41</t>
+          <t>-38,62; 893,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-72,3; 217,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-70,21; 311,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-78,72; 160,63</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-52,84; 545,41</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,1</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,21</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,39</t>
+          <t>-1,21; 1,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 21,25</t>
+          <t>-1,77; 0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 0,0</t>
+          <t>0,3; 4,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 23,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 17,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 50,28</t>
+          <t>-1,57; 1,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 36,68</t>
+          <t>-2,1; 0,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 13,41</t>
+          <t>-0,54; 2,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 25,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 0,99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 0,52</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,91</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>607,7%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>457,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>144,28%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>176,74%</t>
+          <t>-23,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>115,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-19,21%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>215,65%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1616,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-69,34; 600,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,29 +1626,59 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,27; —</t>
+          <t>-88,89; 588,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 1276,49</t>
+          <t>-87,78; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 541,36</t>
+          <t>-56,57; 846,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 793,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-73,98; 463,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-79,74; 235,55</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 1140,19</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 28,66</t>
+          <t>0,05; 5,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 24,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 10,33</t>
+          <t>-0,38; 1,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 11,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 15,69</t>
+          <t>0,28; 2,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 17,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 12,21</t>
+          <t>0,92; 5,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 11,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,12</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 2,51</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>129,57%</t>
+          <t>654,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>105,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>61,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1101,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1191,47%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,94; 842,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,08; 644,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 328,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 282,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,74; 186,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 409,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 306,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,98; 199,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,6; 207,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 2,83</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 1,89</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 4,7</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 1,18</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 0,74</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 2,49</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 1,77</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 0,93</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 3,03</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>113,29%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>35,73%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>171,75%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>78,72%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20,69%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>230,58%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>98,51%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>29,3%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>197,03%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-72,76; 731,08</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-79,69; 527,24</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-49,39; 1033,71</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-26,94; 337,79</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-52,34; 214,62</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>48,61; 641,8</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-33,67; 357,49</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-56,28; 181,42</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 556,68</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
